--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R75_Pproporcion_I0.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D25_R75_Pproporcion_I0.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.0, 0.4821959943254205, 0.9160526173733563, 0.9814702896945906, 1.1873690250033753, 1.4241524267888803, 1.4886277492778732]</t>
+          <t>[0.0, 0.4810112501661118, 0.9216165495457089, 0.9838916936752032, 1.1911938288001136, 1.4187710081339342, 1.4576118793743729]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -641,14 +641,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.0, 0.9160526173733563, 1.1873690250033753, 1.4241524267888803, 1.4886277492778732, 1.5194557969787634, 1.6575700075700994]</t>
+          <t>[0.0, 0.9216165495457089, 1.1911938288001136, 1.4187710081339342, 1.4576118793743729, 1.5122307443804843, 1.5906098147795455]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.305760725896128</v>
+        <v>1.304982418467024</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416262</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[93, 126, 33, 18, 50, 82, 61]</t>
+          <t>[93, 126, 33, 18, 82, 50, 61]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.5566414039753526, 0.610859355369061, 0.7769281583219134, 0.8732275640600656, 0.9230822144035058, 0.9262379654884546, 1.0306369799706947]</t>
+          <t>[0.543512639165064, 0.5970255614747138, 0.7749735321917413, 0.8074536879875299, 0.8673362764848768, 0.9211431983279147, 1.0338511497639824]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[93, 126, 18, 50, 82, 61, 144]</t>
+          <t>[93, 126, 18, 82, 50, 61, 144]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.5566414039753526, 0.610859355369061, 0.8732275640600656, 0.9230822144035058, 0.9262379654884546, 1.0306369799706947, 1.071885489620525]</t>
+          <t>[0.543512639165064, 0.5970255614747138, 0.8074536879875299, 0.8673362764848768, 0.9211431983279147, 1.0338511497639824, 1.0626080559838713]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9246600899459803</v>
+        <v>0.8942397374063957</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416262</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -779,7 +779,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -803,7 +803,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.48433525647676795, 0.9388373553904631, 1.1819140393034098, 1.3297616022402352, 1.3859203206146011, 1.4241524267888803, 1.4241524267888803]</t>
+          <t>[0.4708651040852555, 0.8922833303134412, 1.1771754863877426, 1.2496892655340115, 1.3878287122156834, 1.4187710081339342, 1.4187710081339342]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -813,14 +813,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.48433525647676795, 0.9388373553904631, 1.3297616022402352, 1.3859203206146011, 1.4241524267888803, 1.4241524267888803, 1.6961154151067661]</t>
+          <t>[0.4708651040852555, 0.8922833303134412, 1.2496892655340115, 1.3878287122156834, 1.4187710081339342, 1.4187710081339342, 1.5617170376593899]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.405036373701741</v>
+        <v>1.403299860174809</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -846,14 +846,14 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[13, 26, 24, 32, 106, 53, 15]</t>
+          <t>[13, 26, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.12383729999999993, 0.22922493918449743, 1.0888895954518039, 1.2032333598118239, 1.4874373125727904, 1.6359388295063368, 1.7090887673848945]</t>
+          <t>[0.12578454000000006, 0.22825146201957885, 1.0666577648046947, 1.129795777360642, 1.4889282550930358, 1.5295400892414979, 1.6591293675696936]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -899,14 +899,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.12383729999999993, 0.22922493918449743, 1.0888895954518039, 1.2032333598118239, 1.4874373125727904, 1.6359388295063368, 1.8022207065410882]</t>
+          <t>[0.12578454000000006, 0.22825146201957885, 1.0666577648046947, 1.129795777360642, 1.4889282550930358, 1.5295400892414979, 1.6591293675696936]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.561688071039564</v>
+        <v>1.509234172167267</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -965,17 +965,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[136, 39, 18, 140, 64, 93, 2]</t>
+          <t>[136, 39, 140, 18, 64, 93, 2]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 1, 1]</t>
+          <t>[0, 0, 0, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.6185446951814616, 0.9160333205034348, 1.2811789980077926, 1.295791381936594, 1.3135214051909974, 1.3883081438784586, 1.4605295520644632]</t>
+          <t>[0.6409545109365141, 0.9167074996761876, 1.2876106367036695, 1.3098273508984393, 1.318736853759097, 1.3865333612572717, 1.4309060610573023]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -985,14 +985,14 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[1.2811789980077926, 1.3135214051909974, 1.3883081438784586, 1.4605295520644632, 1.5806962345579414, 1.6730792748773422, 1.7968586930777528]</t>
+          <t>[1.3098273508984393, 1.318736853759097, 1.3865333612572717, 1.4309060610573023, 1.599382187174444, 1.6931260743871706, 1.7873272456192153]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.350914774534728</v>
+        <v>1.352635107508184</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1018,14 +1018,14 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1034,34 +1034,34 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[10, 26, 24, 32, 106, 53, 15]</t>
+          <t>[10, 26, 24, 32, 106, 53, 3]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.12383729999999993, 0.17627458194415485, 1.0190465864757918, 1.1696257093578997, 1.4328210446644254, 1.609476298581776, 1.7428533054859074]</t>
+          <t>[0.12578454000000006, 0.17305157404269866, 0.992908769439402, 1.0927784244722516, 1.4326054887897257, 1.500296276164606, 1.6322090215437195]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.12383729999999993, 0.17627458194415485, 1.0190465864757918, 1.1696257093578997, 1.4328210446644254, 1.609476298581776, 1.7782343987493296]</t>
+          <t>[0.12578454000000006, 0.17305157404269866, 0.992908769439402, 1.0927784244722516, 1.4326054887897257, 1.500296276164606, 1.6322090215437195]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.521148671623101</v>
+        <v>1.466450882477166</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1147,24 +1147,24 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.3106199533411247, 0.3179232875803542, 0.33309989246852395, 0.34844327016022175, 0.45911349810626145, 0.46204661031623756, 0.5035461835943097]</t>
+          <t>[0.31305023229558737, 0.32031487126524805, 0.3369097607066324, 0.3473785464177195, 0.4618890936031225, 0.4677417429289065, 0.5060986759488767]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[74, 111, 110, 63, 117, 85, 37]</t>
+          <t>[74, 111, 110, 63, 117, 37, 85]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.3179232875803542, 0.33309989246852395, 0.45911349810626145, 0.46204661031623756, 0.5035461835943097, 0.5405757326898623, 0.5420551763034448]</t>
+          <t>[0.32031487126524805, 0.3369097607066324, 0.4618890936031225, 0.4677417429289065, 0.5060986759488767, 0.5433520155173495, 0.5450211491533429]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4605800542112495</v>
+        <v>0.4648154182660145</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1223,34 +1223,34 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[93, 164, 64, 2, 39, 50, 159]</t>
+          <t>[93, 64, 164, 2, 50, 39, 33]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.6527622881215712, 0.8070358935077973, 0.8505192112099005, 0.8732275640600656, 0.9127228113309026, 0.9151466215557326, 1.0494812939049438]</t>
+          <t>[0.6220032997840395, 0.7826477219700114, 0.797360825054568, 0.8074536879875299, 0.8812991156484853, 0.934887069588894, 1.0540934328745226]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[93, 64, 2, 50, 20, 126, 135]</t>
+          <t>[93, 64, 2, 50, 20, 126, 144]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.6527622881215712, 0.8505192112099005, 0.8732275640600656, 0.9151466215557326, 1.0822598756073074, 1.175244898358972, 1.2572029695118376]</t>
+          <t>[0.6220032997840395, 0.7826477219700114, 0.8074536879875299, 0.8812991156484853, 1.0807077148112785, 1.0828141876533977, 1.2396358837139219]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9139347164433176</v>
+        <v>0.9080930926186896</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[135, 164, 86, 75, 39, 18, 93]</t>
+          <t>[135, 164, 86, 75, 39, 93, 18]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1319,24 +1319,24 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.42550634064236964, 0.5020689496523739, 0.6880241813052957, 0.7715938454126742, 0.9930782494178949, 1.0822598756073074, 1.0848839978230826]</t>
+          <t>[0.425427913369762, 0.5040903935318612, 0.688741367488466, 0.7652167803845211, 1.007870252873561, 1.0462676765837289, 1.0807077148112785]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[135, 86, 18, 93, 64, 2, 126]</t>
+          <t>[135, 86, 93, 18, 64, 2, 126]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.42550634064236964, 0.6880241813052957, 1.0822598756073074, 1.0848839978230826, 1.3931423036006487, 1.4638880759186992, 1.567096400713851]</t>
+          <t>[0.425427913369762, 0.688741367488466, 1.0462676765837289, 1.0807077148112785, 1.372142040495477, 1.4042257332789836, 1.472656428283648]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.037669062512601</v>
+        <v>1.027068964728645</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[32, 26, 13, 10, 53, 106, 3]</t>
+          <t>[32, 26, 13, 10, 53, 3, 106]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1405,24 +1405,24 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.5099484205958054, 0.906653356496478, 1.0190465864757918, 1.0888895954518039, 1.24350801468456, 1.3152027780014852, 1.3297616022402352]</t>
+          <t>[0.48615548560242655, 0.8898272244986833, 0.992908769439402, 1.0666577648046947, 1.2025630448465081, 1.2496892655340115, 1.2997518760716875]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[32, 26, 13, 10, 53, 106, 3]</t>
+          <t>[32, 26, 13, 10, 53, 3, 106]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.5099484205958054, 0.906653356496478, 1.0190465864757918, 1.0888895954518039, 1.24350801468456, 1.3152027780014852, 1.3297616022402352]</t>
+          <t>[0.48615548560242655, 0.8898272244986833, 0.992908769439402, 1.0666577648046947, 1.2025630448465081, 1.2496892655340115, 1.2997518760716875]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.279355396343023</v>
+        <v>1.22612615519026</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,14 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1464,64 +1464,60 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[13, 10, 24, 32, 106, 53, 101]</t>
+          <t>[13, 10, 24, 32, 53, 106, 3]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.17627458194415485, 0.22922493918449743, 0.906653356496478, 1.0478173650172247, 1.444974375404236, 1.5299770335603338, 1.6830949687856605]</t>
+          <t>[0.17305157404269866, 0.22825146201957885, 0.8898272244986833, 0.9795967138850682, 1.4314163118646228, 1.4465943626339917, 1.5617170376593899]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[13, 10, 24, 32, 106, 53, 3]</t>
+          <t>[13, 10, 24, 32, 53, 106, 3]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.17627458194415485, 0.22922493918449743, 0.906653356496478, 1.0478173650172247, 1.444974375404236, 1.5299770335603338, 1.6961154151067661]</t>
+          <t>[0.17305157404269866, 0.22825146201957885, 0.8898272244986833, 0.9795967138850682, 1.4314163118646228, 1.4465943626339917, 1.5617170376593899]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.487475704482285</v>
+        <v>1.439005337249307</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.5901428612819832</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1541,7 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1571,7 +1567,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[141, 37, 74, 68, 16, 110, 117]</t>
+          <t>[141, 37, 74, 68, 61, 16, 117]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1581,24 +1577,24 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.5465969425563423, 0.6989178284539969, 0.8112519158277587, 0.8309265503762089, 0.8642850827039991, 0.8755610349655605, 0.8787444555330411]</t>
+          <t>[0.5481780254543271, 0.7203226469925431, 0.837712526932615, 0.8559001232420516, 0.8732158499295771, 0.8958590338942881, 0.901739289756708]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[37, 74, 68, 16, 110, 117, 55]</t>
+          <t>[37, 74, 68, 61, 16, 117, 110]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.6989178284539969, 0.8112519158277587, 0.8309265503762089, 0.8642850827039991, 0.8755610349655605, 0.8787444555330411, 0.9231175982706445]</t>
+          <t>[0.7203226469925431, 0.837712526932615, 0.8559001232420516, 0.8732158499295771, 0.8958590338942881, 0.901739289756708, 0.9035608080906766]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8699230588347797</v>
+        <v>0.8845374419119326</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,7 +1603,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1627,7 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1657,7 +1653,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[24, 53, 3, 26, 13, 10, 168]</t>
+          <t>[24, 3, 53, 26, 13, 10, 168]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1667,24 +1663,24 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.5099484205958054, 0.9226891553132051, 0.9388373553904631, 1.0478173650172247, 1.1696257093578997, 1.2032333598118239, 1.229883978072936]</t>
+          <t>[0.48615548560242655, 0.8922833303134412, 0.9089140082534503, 0.9795967138850682, 1.0927784244722516, 1.129795777360642, 1.193539269279712]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[24, 53, 3, 26, 13, 10, 167]</t>
+          <t>[24, 3, 53, 26, 13, 10, 167]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.5099484205958054, 0.9226891553132051, 0.9388373553904631, 1.0478173650172247, 1.1696257093578997, 1.2032333598118239, 1.4097756260834995]</t>
+          <t>[0.48615548560242655, 0.8922833303134412, 0.9089140082534503, 0.9795967138850682, 1.0927784244722516, 1.129795777360642, 1.3852569123559788]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.186429534584862</v>
+        <v>1.111287100916447</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1693,7 +1689,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1713,7 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1726,14 +1722,14 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
@@ -1743,17 +1739,17 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[55, 124, 110, 117, 16, 76, 141]</t>
+          <t>[55, 124, 110, 117, 16, 76, 71]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.3017977969723619, 0.4951109845727359, 0.5082186636888633, 0.513468475508914, 0.5420551763034448, 0.564418924137995, 0.5742640537941632]</t>
+          <t>[0.3044509678535664, 0.5056494696802747, 0.5125315661844257, 0.5137211504299318, 0.5433520155173495, 0.5661613001466195, 0.5788710616774667]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1763,23 +1759,27 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.3017977969723619, 0.4951109845727359, 0.5082186636888633, 0.513468475508914, 0.5420551763034448, 0.577275690137988, 0.5855771569836601]</t>
+          <t>[0.3044509678535664, 0.5056494696802747, 0.5125315661844257, 0.5137211504299318, 0.5433520155173495, 0.5788710616774667, 0.5875174251935039]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5532370502207199</v>
+        <v>0.5547566578319845</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.5901428612819832</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>117</v>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[1.7851366428125024, 1.8879590188065252, 1.9443068841514073, 1.9563643726939517, 2.118645673691506, 2.178092879518957, 2.2376000251825037]</t>
+          <t>[1.758393635411441, 1.862059693354052, 1.929451537446643, 1.9348178364182216, 2.1143299620735907, 2.150245778032797, 2.2292532799530993]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1849,14 +1849,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[1.7851366428125024, 1.8879590188065252, 1.9443068841514073, 2.2376000251825037, 2.3391889352710935, 2.510099631584964, 2.656627312809534]</t>
+          <t>[1.758393635411441, 1.862059693354052, 1.929451537446643, 2.2292532799530993, 2.301525018545394, 2.4358541470574617, 2.649042922755662]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>2.148369276605232</v>
+        <v>2.132287870053194</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -1915,47 +1915,43 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[130, 137, 58, 150, 120, 142, 6]</t>
+          <t>[130, 58, 137, 150, 120, 142, 6]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 0]</t>
+          <t>[1, 0, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.046463975155769, 1.0700588092318102, 1.0711548817818204, 1.1778546988063694, 1.2031501629342944, 1.2943622217705033, 1.3629173435188937]</t>
+          <t>[1.0726624496143935, 1.0797381354943343, 1.0864686698744337, 1.1985051825325834, 1.2180235984679777, 1.3086242767281688, 1.3738049865857405]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[130, 137, 150, 120, 142, 71, 32]</t>
+          <t>[130, 137, 150, 120, 142, 32, 71]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.046463975155769, 1.0700588092318102, 1.1778546988063694, 1.2031501629342944, 1.2943622217705033, 1.6584541458618214, 1.6616393703671992]</t>
+          <t>[1.0726624496143935, 1.0864686698744337, 1.1985051825325834, 1.2180235984679777, 1.3086242767281688, 1.6342950296487067, 1.6730865910756683]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.248756192352399</v>
+        <v>1.263323937598073</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5202230023486417</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1975,7 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2015,7 +2011,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.2809945645617435, 0.3135700805012783, 0.3619593845248843, 0.3813994834341567, 0.40990153450697975, 0.4482108707387499, 0.4627874054340063]</t>
+          <t>[0.28165041804591845, 0.31619563645323023, 0.36767757628609654, 0.3841515806395329, 0.41356305702397095, 0.4512828192649383, 0.46708124562081127]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2025,14 +2021,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.2809945645617435, 0.3135700805012783, 0.3619593845248843, 0.3813994834341567, 0.40990153450697975, 0.4482108707387499, 0.4627874054340063]</t>
+          <t>[0.28165041804591845, 0.31619563645323023, 0.36767757628609654, 0.3841515806395329, 0.41356305702397095, 0.4512828192649383, 0.46708124562081127]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4290562026228648</v>
+        <v>0.4324229381444546</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2041,7 +2037,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2061,7 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2091,17 +2087,17 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[101, 131, 33, 18, 2, 159, 144]</t>
+          <t>[101, 131, 18, 33, 159, 2, 144]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1, 0, 1]</t>
+          <t>[0, 0, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.7098764936566254, 0.8658013720941862, 0.9037224084374528, 0.9151466215557326, 0.9230822144035058, 0.9359222838924346, 0.9459412792919488]</t>
+          <t>[0.7181412884739279, 0.8747277969225647, 0.8812991156484853, 0.9014711265980349, 0.9139422217213, 0.9211431983279147, 0.9270372716686464]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2111,14 +2107,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.9151466215557326, 0.9230822144035058, 0.9459412792919488, 0.9873190536981198, 0.9979164042953067, 1.0066346432848685, 1.5524163181668431]</t>
+          <t>[0.8812991156484853, 0.9211431983279147, 0.9270372716686464, 0.9605720618777593, 0.9798302984571435, 1.0121149241844807, 1.4381576059979915]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9295022491479702</v>
+        <v>0.9175427100246074</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2127,7 +2123,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2147,7 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2177,7 +2173,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[3, 32, 24, 168, 167, 1, 123]</t>
+          <t>[3, 32, 24, 168, 167, 26, 106]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2187,24 +2183,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.48433525647676795, 0.9226891553132051, 1.24350801468456, 1.360974726188162, 1.4252437209913102, 1.5194557969787634, 1.5194557969787634]</t>
+          <t>[0.4708651040852555, 0.9089140082534503, 1.2025630448465081, 1.3527437542022367, 1.4245043368181531, 1.4314163118646228, 1.4883034343237824]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[3, 32, 24, 167, 123, 1, 26]</t>
+          <t>[3, 32, 24, 167, 26, 106, 13]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[0.48433525647676795, 0.9226891553132051, 1.24350801468456, 1.4252437209913102, 1.5194557969787634, 1.5194557969787634, 1.5299770335603338]</t>
+          <t>[0.4708651040852555, 0.9089140082534503, 1.2025630448465081, 1.4245043368181531, 1.4314163118646228, 1.4883034343237824, 1.500296276164606]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.472349758985037</v>
+        <v>1.427960324341388</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2213,7 +2209,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.527433</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2233,7 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2273,24 +2269,24 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.3017977969723619, 0.39831776721927864, 0.45345269303776736, 0.5947596757052332, 0.6110144042925486, 0.6142286866222922, 0.6841498536967835]</t>
+          <t>[0.3044509678535664, 0.4039146030562367, 0.4643114664792163, 0.6106940507734806, 0.612944284062027, 0.6262580184250272, 0.6837919505211423]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[37, 124, 117, 16, 63, 110, 111]</t>
+          <t>[37, 124, 117, 16, 63, 110, 71]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[0.3017977969723619, 0.39831776721927864, 0.6110144042925486, 0.6841498536967835, 0.7030051977955721, 0.7131660173436479, 0.7472609234351757]</t>
+          <t>[0.3044509678535664, 0.4039146030562367, 0.612944284062027, 0.6837919505211423, 0.7066335393353149, 0.7174125379039888, 0.7511856298206196]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6126215454574204</v>
+        <v>0.6196011512435271</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2299,7 +2295,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2319,7 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -2349,7 +2345,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[90, 79, 103, 99, 71, 17, 124]</t>
+          <t>[90, 79, 103, 99, 71, 17, 63]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2359,33 +2355,37 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.26145340433944264, 0.32755753104302776, 0.49197417390839676, 0.5297326969293251, 0.5571436805472789, 0.5854366580022962, 0.6277269145947946]</t>
+          <t>[0.2618484524171285, 0.3292706894302599, 0.5009975969984801, 0.5308529159063475, 0.5614273559098497, 0.5895864699464465, 0.6314332056662219]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[90, 79, 99, 71, 124, 63, 110]</t>
+          <t>[90, 79, 99, 71, 63, 124, 110]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[0.26145340433944264, 0.32755753104302776, 0.5297326969293251, 0.5571436805472789, 0.6277269145947946, 0.6317164635203412, 0.6400455424645951]</t>
+          <t>[0.2618484524171285, 0.3292706894302599, 0.5308529159063475, 0.5614273559098497, 0.6314332056662219, 0.6366365310602139, 0.641520060799565]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5712901692747876</v>
+        <v>0.575506912928148</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5202230023486417</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>71</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -2435,34 +2435,34 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[126, 30, 50, 2, 141, 144, 37]</t>
+          <t>[30, 126, 50, 141, 2, 37, 144]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.9304243110594927, 0.9499592686009883, 0.9873190536981198, 1.0306369799706947, 1.0636829869679472, 1.0878696121117726, 1.1334110557056705]</t>
+          <t>[0.8732158499295771, 0.9592379858882074, 0.9605720618777593, 0.9966162178261135, 1.0338511497639824, 1.0864725022478738, 1.1181909005402482]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[126, 30, 50, 2, 144, 37, 82]</t>
+          <t>[30, 126, 50, 2, 37, 144, 74]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.9304243110594927, 0.9499592686009883, 0.9873190536981198, 1.0306369799706947, 1.0878696121117726, 1.1334110557056705, 1.1708370143771614]</t>
+          <t>[0.8732158499295771, 0.9592379858882074, 0.9605720618777593, 1.0338511497639824, 1.0864725022478738, 1.1181909005402482, 1.1800243920844993]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.07577629953986</v>
+        <v>1.060161826005928</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2531,24 +2531,24 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.3034121357885497, 0.3813994834341567, 0.4062657562106945, 0.42137736126613456, 0.4245080213698509, 0.46204661031623756, 0.4760329711211138]</t>
+          <t>[0.30857534286460186, 0.3841515806395329, 0.4076448993138839, 0.4211847595469262, 0.4238610549299611, 0.4677417429289065, 0.4763939745522212]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[111, 49, 110, 117, 16, 74, 128]</t>
+          <t>[111, 49, 110, 117, 16, 74, 160]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[0.3034121357885497, 0.3813994834341567, 0.4062657562106945, 0.4245080213698509, 0.46204661031623756, 0.4760329711211138, 0.4793176967685155]</t>
+          <t>[0.30857534286460186, 0.3841515806395329, 0.4076448993138839, 0.4238610549299611, 0.4677417429289065, 0.4763939745522212, 0.4795782243049845]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4432773158430442</v>
+        <v>0.4458013989294338</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[151, 18, 164, 115, 136, 39, 159]</t>
+          <t>[151, 18, 164, 115, 136, 159, 39]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2617,24 +2617,24 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.7585561060742826, 0.8505192112099005, 1.0777784051246722, 1.0872238889050982, 1.1464395838111607, 1.2424781309025008, 1.2425080182469612]</t>
+          <t>[0.7375505153394449, 0.7826477219700114, 1.0579548339580722, 1.1009347506836502, 1.1255932186555502, 1.2095154896371625, 1.2116727030006984]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[18, 11, 20, 93, 86, 135, 50]</t>
+          <t>[18, 11, 93, 20, 50, 86, 2]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.8505192112099005, 1.3135214051909974, 1.3931423036006487, 1.4381460762973786, 1.4845272838529482, 1.5349453812531133, 1.5524163181668431]</t>
+          <t>[0.7826477219700114, 1.318736853759097, 1.3345839145299472, 1.372142040495477, 1.4381576059979915, 1.4758587985002787, 1.4941310558775065]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.194458857356831</v>
+        <v>1.167554354146356</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.23695533630624668, 0.3723430536910444, 0.40694674734655273, 0.44606532194761067, 0.45435706316245267, 0.5430831194213468, 0.5542725643587799]</t>
+          <t>[0.24314546990905206, 0.3752459860911151, 0.40667860143448037, 0.4492401151130951, 0.4583772079887975, 0.5439225642992347, 0.5580279168403104]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2713,14 +2713,14 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[0.23695533630624668, 0.3723430536910444, 0.40694674734655273, 0.44606532194761067, 0.45435706316245267, 0.5430831194213468, 0.5542725643587799]</t>
+          <t>[0.24314546990905206, 0.3752459860911151, 0.40667860143448037, 0.4492401151130951, 0.4583772079887975, 0.5439225642992347, 0.5580279168403104]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4987200912918998</v>
+        <v>0.5011498861440161</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[90, 102, 79, 57, 37, 124, 103]</t>
+          <t>[90, 102, 79, 57, 37, 124, 143]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.46181698517925857, 0.5415298772043091, 0.5521381064864335, 0.5571436805472789, 0.577275690137988, 0.5848832852197339, 0.5909021364990396]</t>
+          <t>[0.4670260844023258, 0.5433709000812461, 0.5595003937607975, 0.5614273559098497, 0.5788710616774667, 0.5903080299875618, 0.5912978777427967]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2799,14 +2799,14 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.46181698517925857, 0.5521381064864335, 0.5571436805472789, 0.577275690137988, 0.5848832852197339, 0.6147792345535573, 0.650205129331749]</t>
+          <t>[0.4670260844023258, 0.5595003937607975, 0.5614273559098497, 0.5788710616774667, 0.5903080299875618, 0.6155995484283155, 0.6492209261472661]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.581079487678861</v>
+        <v>0.5845895458325143</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[40, 29, 69, 36, 154, 126, 145]</t>
+          <t>[40, 29, 69, 154, 36, 126, 145]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2875,24 +2875,24 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.8322086286140151, 0.8477442091084469, 0.8491336643428226, 0.8709481925873969, 0.9069902002608059, 0.9163328044574152, 0.9640833914379245]</t>
+          <t>[0.78118296335908, 0.8228574159374887, 0.8463792270963753, 0.861224313779385, 0.8618992164981681, 0.9031077180634763, 0.9205312394501862]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[126, 55, 37, 63, 160, 82, 124]</t>
+          <t>[126, 55, 37, 63, 160, 124, 74]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.9163328044574152, 1.0054825464234454, 1.1305604362358415, 1.1574885149537946, 1.179926605878501, 1.2045438017710968, 1.210335663516114]</t>
+          <t>[0.9031077180634763, 0.9622698388411428, 1.0931051447595528, 1.1222088301339406, 1.145338743770504, 1.1757274069102646, 1.1787771163603327]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9116615023591105</v>
+        <v>0.8825034672808223</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[16, 111, 160, 117, 85, 63, 128]</t>
+          <t>[16, 111, 160, 117, 63, 85, 128]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2961,24 +2961,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.3179232875803542, 0.32062597268383025, 0.4211861086930649, 0.44585689998946537, 0.4733098029242359, 0.4760329711211138, 0.48061127990093694]</t>
+          <t>[0.32031487126524805, 0.32313216103681064, 0.42344367785407006, 0.44618373341634154, 0.4763939745522212, 0.47655155033823526, 0.48521275863274205]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[16, 111, 160, 117, 85, 63, 128]</t>
+          <t>[16, 111, 160, 117, 63, 85, 128]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.3179232875803542, 0.32062597268383025, 0.4211861086930649, 0.44585689998946537, 0.4733098029242359, 0.4760329711211138, 0.48061127990093694]</t>
+          <t>[0.32031487126524805, 0.32313216103681064, 0.42344367785407006, 0.44618373341634154, 0.4763939745522212, 0.47655155033823526, 0.48521275863274205]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4746713870226749</v>
+        <v>0.4764727624452282</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.30342305734965824, 0.32755753104302776, 0.457865996791064, 0.5521381064864335, 0.5591585141777102, 0.5997629761616879, 0.6548571471022206]</t>
+          <t>[0.3064603001664885, 0.3292706894302599, 0.46135806847689287, 0.5595003937607975, 0.5633924056325269, 0.6021622313961356, 0.6595128204560572]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3057,14 +3057,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.30342305734965824, 0.32755753104302776, 0.5521381064864335, 0.5997629761616879, 0.6548571471022206, 0.7922300100025296, 0.8515574039396515]</t>
+          <t>[0.3064603001664885, 0.3292706894302599, 0.5595003937607975, 0.6021622313961356, 0.6595128204560572, 0.7928808233033989, 0.8601521155057693]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5794607451696991</v>
+        <v>0.5827773185143312</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[160, 49, 128, 63, 111, 74, 126]</t>
+          <t>[160, 49, 128, 63, 111, 74, 138]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3133,24 +3133,24 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.6853075431211938, 0.7832097589699417, 0.7854494982411463, 0.8401038477264858, 0.8513036896571977, 0.8644404950280317, 0.868606397909874]</t>
+          <t>[0.6405454693512292, 0.7426964006762404, 0.7457421553677432, 0.8048119831481294, 0.8195549035889708, 0.8334555455918898, 0.8431960987414783]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[160, 49, 128, 63, 111, 74, 126]</t>
+          <t>[160, 49, 128, 63, 111, 74, 138]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.6853075431211938, 0.7832097589699417, 0.7854494982411463, 0.8401038477264858, 0.8513036896571977, 0.8644404950280317, 0.868606397909874]</t>
+          <t>[0.6405454693512292, 0.7426964006762404, 0.7457421553677432, 0.8048119831481294, 0.8195549035889708, 0.8334555455918898, 0.8431960987414783]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8578720923426146</v>
+        <v>0.8265052245904303</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.23695533630624668, 0.26083568441273386, 0.3525651860084065, 0.37543966470011936, 0.4379233230680656, 0.4482108707387499, 0.4733098029242359]</t>
+          <t>[0.24314546990905206, 0.2726668390156785, 0.35299870513595977, 0.3805020501500437, 0.4388566191691035, 0.4512828192649383, 0.47655155033823526]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3229,14 +3229,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.23695533630624668, 0.26083568441273386, 0.3525651860084065, 0.37543966470011936, 0.4379233230680656, 0.4482108707387499, 0.4733098029242359]</t>
+          <t>[0.24314546990905206, 0.2726668390156785, 0.35299870513595977, 0.3805020501500437, 0.4388566191691035, 0.4512828192649383, 0.47655155033823526]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4430670969034077</v>
+        <v>0.4450697192170209</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3245,7 +3245,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.4110855217319613, 0.5395758986574626, 0.5849497678084447, 0.6880241813052957, 0.90872644170976, 1.1866819274558242, 1.27373563459267]</t>
+          <t>[0.40831705882074587, 0.5387614146270838, 0.5462548606770977, 0.688741367488466, 0.9022461731759875, 1.2013631165111196, 1.2222401777138816]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3315,14 +3315,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.4110855217319613, 0.6880241813052957, 1.3065530639942857, 1.4224637131111586, 1.4845272838529482, 1.6981960025143599, 1.778254649505482]</t>
+          <t>[0.40831705882074587, 0.688741367488466, 1.2957509092493693, 1.3730161280013853, 1.4758587985002787, 1.622861991463578, 1.6641659010615166]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>1.047704184582792</v>
+        <v>1.051804644843554</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.26145340433944264, 0.30342305734965824, 0.33408328883534383, 0.46181698517925857, 0.5691454141595924, 0.5805349222928808, 0.6176319187290984]</t>
+          <t>[0.2618484524171285, 0.3064603001664885, 0.3351244201627542, 0.4670260844023258, 0.5783782294561717, 0.580686189256854, 0.6209810187298433]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3401,14 +3401,14 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.26145340433944264, 0.30342305734965824, 0.33408328883534383, 0.46181698517925857, 0.5805349222928808, 0.6507882274491199, 0.6881598319106234]</t>
+          <t>[0.2618484524171285, 0.3064603001664885, 0.3351244201627542, 0.4670260844023258, 0.580686189256854, 0.6485521859112506, 0.6877331417567948]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5748401682262367</v>
+        <v>0.5795322093565128</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3417,7 +3417,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3450,14 +3450,14 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N35" t="b">
         <v>1</v>
@@ -3467,34 +3467,34 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[2, 18, 126, 33, 39, 50, 144]</t>
+          <t>[2, 18, 126, 33, 144, 164, 39]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.5566414039753526, 0.6527622881215712, 0.7106530325113506, 0.7523656309932052, 0.9907344657840328, 1.0066346432848685, 1.0099640703169397]</t>
+          <t>[0.543512639165064, 0.6220032997840395, 0.6669286870211442, 0.726921038069993, 0.980752811314269, 0.9815152798282499, 0.9931425973738903]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[2, 18, 126, 50, 144, 20, 82]</t>
+          <t>[2, 18, 126, 144, 50, 20, 82]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.5566414039753526, 0.6527622881215712, 0.7106530325113506, 1.0066346432848685, 1.0099640703169397, 1.0848839978230826, 1.2142937214564624]</t>
+          <t>[0.543512639165064, 0.6220032997840395, 0.6669286870211442, 0.980752811314269, 1.0121149241844807, 1.0462676765837289, 1.1251201158545252]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9986845545344507</v>
+        <v>0.9811340455712594</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.35758298601356886, 0.4387424405496702, 0.5448205661192757, 0.561488784634224, 0.650205129331749, 0.6647813664429284, 0.7767746659932823]</t>
+          <t>[0.35805837937979546, 0.43984895310195693, 0.546759059416944, 0.5606060486636002, 0.6492209261472661, 0.6674167195671095, 0.7753305685479754]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3573,14 +3573,14 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[0.650205129331749, 0.8577839838164627, 0.8868508477457976, 0.8908215224956667, 0.8968798149607361, 0.9035520438840837, 0.9248337390728043]</t>
+          <t>[0.6492209261472661, 0.8551388664166438, 0.886070214520072, 0.8880098504442689, 0.8983530122881911, 0.9030386652096798, 0.9279464995304852]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6574932478873386</v>
+        <v>0.6583188228571878</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.33408328883534383, 0.5243745371794828, 0.5297326969293251, 0.5775431631231445, 0.5997629761616879, 0.6178075666538663, 0.6588199386925682]</t>
+          <t>[0.3351244201627542, 0.5243284529936272, 0.5308529159063475, 0.5761550783426519, 0.6021622313961356, 0.6210957713701758, 0.6650610850746144]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3659,14 +3659,14 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.33408328883534383, 0.5243745371794828, 0.5297326969293251, 0.5775431631231445, 0.5997629761616879, 0.6178075666538663, 0.6588199386925682]</t>
+          <t>[0.3351244201627542, 0.5243284529936272, 0.5308529159063475, 0.5761550783426519, 0.6021622313961356, 0.6210957713701758, 0.6650610850746144]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6087852714077771</v>
+        <v>0.6116290013831557</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[24, 13, 26, 10, 32, 53, 113]</t>
+          <t>[24, 13, 26, 32, 53, 10, 113]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3735,24 +3735,24 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[1.3152027780014852, 1.4328210446644254, 1.444974375404236, 1.4874373125727904, 1.5330840916821618, 1.5832754151797346, 1.5887341385338887]</t>
+          <t>[1.2997518760716875, 1.4326054887897257, 1.4465943626339917, 1.4872558452416422, 1.4883034343237824, 1.4889282550930358, 1.5651554283445916]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[24, 13, 26, 10, 32, 53, 113]</t>
+          <t>[24, 13, 26, 32, 53, 10, 113]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[1.3152027780014852, 1.4328210446644254, 1.444974375404236, 1.4874373125727904, 1.5330840916821618, 1.5832754151797346, 1.5887341385338887]</t>
+          <t>[1.2997518760716875, 1.4326054887897257, 1.4465943626339917, 1.4872558452416422, 1.4883034343237824, 1.4889282550930358, 1.5651554283445916]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.558179753430948</v>
+        <v>1.488615844708409</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[111, 117, 63, 68, 49, 128, 85]</t>
+          <t>[111, 117, 68, 63, 49, 128, 85]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3821,24 +3821,24 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.2744733658735957, 0.3560386461514872, 0.4062657562106945, 0.40694674734655273, 0.40990153450697975, 0.43036979179434537, 0.4379233230680656]</t>
+          <t>[0.27645423608139263, 0.35636655861572464, 0.40667860143448037, 0.4076448993138839, 0.41356305702397095, 0.4332185732746306, 0.4388566191691035]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[111, 117, 63, 68, 49, 128, 85]</t>
+          <t>[111, 117, 68, 63, 49, 128, 85]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[0.2744733658735957, 0.3560386461514872, 0.4062657562106945, 0.40694674734655273, 0.40990153450697975, 0.43036979179434537, 0.4379233230680656]</t>
+          <t>[0.27645423608139263, 0.35636655861572464, 0.40667860143448037, 0.4076448993138839, 0.41356305702397095, 0.4332185732746306, 0.4388566191691035]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4201356631506625</v>
+        <v>0.4233908151493008</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.2744733658735957, 0.3034121357885497, 0.3180048786686681, 0.32062597268383025, 0.33309989246852395, 0.3525651860084065, 0.3537154799666674]</t>
+          <t>[0.27645423608139263, 0.30857534286460186, 0.32247969862764236, 0.32313216103681064, 0.3369097607066324, 0.35299870513595977, 0.36365504179367153]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3917,14 +3917,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.2744733658735957, 0.3034121357885497, 0.3180048786686681, 0.32062597268383025, 0.33309989246852395, 0.3525651860084065, 0.3537154799666674]</t>
+          <t>[0.27645423608139263, 0.30857534286460186, 0.32247969862764236, 0.32313216103681064, 0.3369097607066324, 0.35299870513595977, 0.36365504179367153]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3428325392384652</v>
+        <v>0.3449542329212961</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.5887341385338887, 1.8712669191633535, 1.9882092360433803, 2.0792795559156065, 2.120705225763082, 2.120705225763082, 2.137846330564128]</t>
+          <t>[1.5651554283445916, 1.8452904537986308, 1.9394303770560357, 2.0740535645191494, 2.0749096219754386, 2.0749096219754386, 2.1298676608585234]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4003,14 +4003,14 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[1.5887341385338887, 1.8712669191633535, 1.9882092360433803, 2.0792795559156065, 2.120705225763082, 2.120705225763082, 2.137846330564128]</t>
+          <t>[1.5651554283445916, 1.8452904537986308, 1.9394303770560357, 2.0740535645191494, 2.0749096219754386, 2.0749096219754386, 2.1298676608585234]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>6</v>
       </c>
       <c r="V41" t="n">
-        <v>2.120705225763082</v>
+        <v>2.074909621975439</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.3180048786686681, 0.3560386461514872, 0.4245080213698509, 0.44585689998946537, 0.4627874054340063, 0.5035461835943097, 0.513468475508914]</t>
+          <t>[0.32247969862764236, 0.35636655861572464, 0.4238610549299611, 0.44618373341634154, 0.46708124562081127, 0.5060986759488767, 0.5137211504299318]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4089,14 +4089,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.3180048786686681, 0.3560386461514872, 0.4245080213698509, 0.44585689998946537, 0.4627874054340063, 0.5035461835943097, 0.513468475508914]</t>
+          <t>[0.32247969862764236, 0.35636655861572464, 0.4238610549299611, 0.44618373341634154, 0.46708124562081127, 0.5060986759488767, 0.5137211504299318]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4831667945141579</v>
+        <v>0.486589960784844</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4105,7 +4105,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.36563824762624714, 0.5491526625270188, 0.5901532895688281, 0.6646680601694258, 0.9246686593557379, 0.9800305229423949, 1.0071552182145074]</t>
+          <t>[0.36909148596430325, 0.5478984678854085, 0.5923861574586564, 0.6643281459477863, 0.9343859172704682, 0.9795109766371253, 1.0209499093984051]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4175,14 +4175,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.36563824762624714, 0.5491526625270188, 0.9800305229423949, 1.1777769469348112, 1.2031501629342944, 1.2312749356501818, 1.2890324381542273]</t>
+          <t>[0.36909148596430325, 0.5478984678854085, 0.9795109766371253, 1.1873392805871363, 1.2180235984679777, 1.2437269721172721, 1.3180408232630314]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9523495911490664</v>
+        <v>0.9569484469537968</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.0, 0.4821959943254205, 0.9160526173733563, 0.9814702896945906, 1.1873690250033753, 1.4241524267888803, 1.4886277492778732]</t>
+          <t>[0.0, 0.4810112501661118, 0.9216165495457089, 0.9838916936752032, 1.1911938288001136, 1.4187710081339342, 1.4576118793743729]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.0, 0.9160526173733563, 1.1873690250033753, 1.4241524267888803, 1.4886277492778732, 1.5194557969787634, 1.6575700075700994]</t>
+          <t>[0.0, 0.9216165495457089, 1.1911938288001136, 1.4187710081339342, 1.4576118793743729, 1.5122307443804843, 1.5906098147795455]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.305760725896128</v>
+        <v>1.304982418467024</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4277,7 +4277,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.36398677328969936, 0.39831776721927864, 0.4587441109186343, 0.4669881496214741, 0.4951109845727359, 0.5162534391821477, 0.5848832852197339]</t>
+          <t>[0.36908739473215973, 0.4039146030562367, 0.4611121584392357, 0.4750381860766998, 0.5056494696802747, 0.5214724639123274, 0.5903080299875618]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4347,27 +4347,23 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.39831776721927864, 0.4951109845727359, 0.5848832852197339, 0.6277269145947946, 0.6548571471022206, 0.6614744634969527, 0.6905557248042234]</t>
+          <t>[0.4039146030562367, 0.5056494696802747, 0.5903080299875618, 0.6366365310602139, 0.6595128204560572, 0.6672147453134143, 0.6977327678970316]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5056822118774418</v>
+        <v>0.513560966796301</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.4041168988591605</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.416994</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4387,7 @@
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4400,14 +4396,14 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N46" t="b">
         <v>1</v>
@@ -4417,17 +4413,17 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[2, 144, 33, 93, 82, 29, 69]</t>
+          <t>[2, 144, 93, 33, 82, 29, 73]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.610859355369061, 0.6421717108665826, 0.6937228610778595, 0.7106530325113506, 0.868606397909874, 0.8949125306892459, 0.9089606398439706]</t>
+          <t>[0.5970255614747138, 0.6417616537313754, 0.6669286870211442, 0.6952471136774796, 0.8468684468051646, 0.8995795902261575, 0.9031077180634763]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4437,14 +4433,14 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[0.610859355369061, 0.6421717108665826, 0.7106530325113506, 0.868606397909874, 0.9163328044574152, 0.9304243110594927, 0.9979164042953067]</t>
+          <t>[0.5970255614747138, 0.6417616537313754, 0.6669286870211442, 0.8468684468051646, 0.9031077180634763, 0.9592379858882074, 0.9798302984571435]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8817594642995601</v>
+        <v>0.873224018515661</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4453,7 +4449,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4473,7 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4513,7 +4509,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.2512198806224668, 0.26083568441273386, 0.3135700805012783, 0.3537154799666674, 0.3723430536910444, 0.43036979179434537, 0.4793176967685155]</t>
+          <t>[0.25258123396882093, 0.2726668390156785, 0.31619563645323023, 0.36365504179367153, 0.3752459860911151, 0.4332185732746306, 0.4807368564840356]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4523,14 +4519,14 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.2512198806224668, 0.26083568441273386, 0.3135700805012783, 0.3537154799666674, 0.3723430536910444, 0.43036979179434537, 0.4793176967685155]</t>
+          <t>[0.25258123396882093, 0.2726668390156785, 0.31619563645323023, 0.36365504179367153, 0.3752459860911151, 0.4332185732746306, 0.4807368564840356]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4013564227426949</v>
+        <v>0.4042322796828729</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4539,7 +4535,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4559,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4589,7 +4585,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[48, 161, 21, 32, 137, 120, 24]</t>
+          <t>[48, 161, 21, 32, 137, 24, 120]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4599,24 +4595,24 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[1.046463975155769, 1.283719358061097, 1.3632899200015807, 1.4307248233569958, 1.4627621684352574, 1.5876049716604923, 1.603789969472479]</t>
+          <t>[1.0726624496143935, 1.2987114558305402, 1.3749333125718888, 1.4225038432107304, 1.4997027963295897, 1.5513749409420696, 1.626779747664797]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[48, 161, 32, 137, 120, 24, 167]</t>
+          <t>[48, 161, 32, 137, 24, 120, 167]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[1.046463975155769, 1.283719358061097, 1.4307248233569958, 1.4627621684352574, 1.5876049716604923, 1.603789969472479, 1.6173388892878602]</t>
+          <t>[1.0726624496143935, 1.2987114558305402, 1.4225038432107304, 1.4997027963295897, 1.5513749409420696, 1.626779747664797, 1.6332902636360804]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.525183570047875</v>
+        <v>1.52553886863583</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4625,7 +4621,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4642,14 +4638,14 @@
         <v>1</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>7</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -4661,7 +4657,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
@@ -4671,51 +4667,47 @@
         <v>1</v>
       </c>
       <c r="O49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[86, 20, 164, 75, 39, 52, 93]</t>
+          <t>[86, 20, 164, 75, 39, 93, 52]</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.4110855217319613, 0.42550634064236964, 0.5538857627393288, 0.6181134139081883, 1.0054818482900676, 1.2300596635418615, 1.2535648554612546]</t>
+          <t>[0.40831705882074587, 0.425427913369762, 0.5531325422078152, 0.6068178506036274, 1.0214196596104428, 1.2191451123193129, 1.2194479358102501]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[86, 20, 93, 18, 64, 2, 126]</t>
+          <t>[86, 20, 93, 18, 2, 64, 126]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.4110855217319613, 0.42550634064236964, 1.2535648554612546, 1.2572029695118376, 1.5349453812531133, 1.539395671410299, 1.6451339766859743]</t>
+          <t>[0.40831705882074587, 0.425427913369762, 1.2191451123193129, 1.2542795500916106, 1.4819666589473979, 1.5148526050433546, 1.5536735438652318]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.117770755915965</v>
+        <v>1.120282385964878</v>
       </c>
       <c r="W49" t="n">
-        <v>1</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.4199949831636006</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4731,7 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -4775,7 +4767,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.5491526625270188, 0.5854086426093987, 0.66432450061009, 0.8578070354990099, 0.9821725329087522, 1.0700588092318102, 1.0899653184127855]</t>
+          <t>[0.5478984678854085, 0.5902781557863407, 0.6681512635742224, 0.8579124386296474, 0.9835326343097964, 1.0864686698744337, 1.1012968314094793]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4785,14 +4777,14 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[0.5491526625270188, 0.5854086426093987, 0.66432450061009, 1.0700588092318102, 1.4221438539641473, 1.4627621684352574, 1.4931493543687548]</t>
+          <t>[0.5478984678854085, 0.5902781557863407, 0.6681512635742224, 1.0864686698744337, 1.4309049016757776, 1.4997027963295897, 1.5014541313713516]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>1.026115671070281</v>
+        <v>1.035000652092115</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4801,7 +4793,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4817,7 @@
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -4861,7 +4853,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.2512198806224668, 0.2809945645617435, 0.37543966470011936, 0.4470134741851532, 0.45435706316245267, 0.4636855531366267, 0.5243745371794828]</t>
+          <t>[0.25258123396882093, 0.28165041804591845, 0.3805020501500437, 0.45186871224425285, 0.4583772079887975, 0.46998088891402023, 0.5243284529936272]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4871,14 +4863,14 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[0.2512198806224668, 0.2809945645617435, 0.37543966470011936, 0.4470134741851532, 0.45435706316245267, 0.4636855531366267, 0.5243745371794828]</t>
+          <t>[0.25258123396882093, 0.28165041804591845, 0.3805020501500437, 0.45186871224425285, 0.4583772079887975, 0.46998088891402023, 0.5243284529936272]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4590213081495397</v>
+        <v>0.4641790484514089</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -4887,7 +4879,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4903,7 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -4923,7 +4915,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
@@ -4947,7 +4939,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.66432450061009, 0.8642898752222292, 0.9022531993659573, 0.9800305229423949, 1.0044789175485587, 1.0115093592496351, 1.0701511365058016]</t>
+          <t>[0.6681512635742224, 0.8675701652992724, 0.9041118626842287, 0.9795109766371253, 1.0030764519022746, 1.009349622718085, 1.0772576884010043]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -4957,23 +4949,27 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[0.66432450061009, 0.9022531993659573, 0.9800305229423949, 1.2491463909840486, 1.276027677866168, 1.2943622217705033, 1.3895865223104573]</t>
+          <t>[0.6681512635742224, 0.9041118626842287, 0.9795109766371253, 1.2497475886939413, 1.2756858459640927, 1.3086242767281688, 1.3936230562944671]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>1.007994138399097</v>
+        <v>1.00621303731018</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.4041168988591605</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>150</v>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4993,7 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -5023,34 +5019,34 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[126, 33, 131, 77, 36, 50, 93]</t>
+          <t>[126, 33, 131, 77, 50, 36, 93]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.6421717108665826, 0.6599880550655991, 0.7077984683886157, 0.8496533014156334, 0.9329898631474247, 0.9459412792919488, 1.0099640703169397]</t>
+          <t>[0.6417616537313754, 0.6606071899593906, 0.6991182339013304, 0.85730086787293, 0.9270372716686464, 0.9341803136546909, 0.980752811314269]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[126, 50, 93, 2, 61, 71, 79]</t>
+          <t>[126, 50, 93, 71, 2, 124, 79]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[0.6421717108665826, 0.9459412792919488, 1.0099640703169397, 1.071885489620525, 1.0878696121117726, 1.1411479790205303, 1.1635536767822527]</t>
+          <t>[0.6417616537313754, 0.9270372716686464, 0.980752811314269, 1.046666922349756, 1.0626080559838713, 1.0706205241453448, 1.0708245048081428]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>0.9394655712196868</v>
+        <v>0.9306087926616686</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5059,7 +5055,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5079,7 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -5119,7 +5115,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[0.36563824762624714, 0.5854086426093987, 0.8062823997040823, 0.8202441996445956, 0.8503010973530649, 0.9022531993659573, 0.9373092411817133]</t>
+          <t>[0.36909148596430325, 0.5902781557863407, 0.8054571043686944, 0.8195458274374506, 0.8620269853077518, 0.9041118626842287, 0.9555881154037791]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5129,23 +5125,27 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[0.36563824762624714, 0.5854086426093987, 0.9022531993659573, 1.1145988785818084, 1.116192672135351, 1.166137453341977, 1.1778546988063694]</t>
+          <t>[0.36909148596430325, 0.5902781557863407, 0.9041118626842287, 1.1210636234357751, 1.1247138708916116, 1.1873149576699795, 1.1985051825325834]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8762771483595111</v>
+        <v>0.8830694239959902</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.4199949831636006</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>121</v>
+      </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[74, 63, 111, 49, 128, 117, 16]</t>
+          <t>[74, 63, 111, 49, 128, 117, 82]</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5205,24 +5205,24 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.4211861086930649, 0.4808854431549922, 0.49417626407722776, 0.5660943059228916, 0.5691741631779893, 0.5833762277761252, 0.6386744472865389]</t>
+          <t>[0.42344367785407006, 0.4795782243049845, 0.4960274328732529, 0.5655462228825507, 0.5698225103711712, 0.5834670247918369, 0.6405454693512292]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[74, 63, 111, 49, 128, 117, 16]</t>
+          <t>[74, 63, 111, 49, 128, 117, 82]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.4211861086930649, 0.4808854431549922, 0.49417626407722776, 0.5660943059228916, 0.5691741631779893, 0.5833762277761252, 0.6386744472865389]</t>
+          <t>[0.42344367785407006, 0.4795782243049845, 0.4960274328732529, 0.5655462228825507, 0.5698225103711712, 0.5834670247918369, 0.6405454693512292]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5762751954770573</v>
+        <v>0.5766447675815041</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[21, 167, 168, 1, 123, 130, 32]</t>
+          <t>[21, 167, 168, 123, 1, 130, 32]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.5898059295502076, 0.7416982553305441, 1.1350114540931424, 1.1873690250033753, 1.1873690250033753, 1.283719358061097, 1.522927378865136]</t>
+          <t>[0.5934731144331779, 0.7444887450457575, 1.1388890520449881, 1.1911938288001136, 1.1911938288001136, 1.2987114558305402, 1.4974864828507903]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5301,14 +5301,14 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[0.7416982553305441, 1.1873690250033753, 1.1873690250033753, 1.283719358061097, 1.522927378865136, 1.600793441682274, 1.691102566533761]</t>
+          <t>[0.7444887450457575, 1.1911938288001136, 1.1911938288001136, 1.2987114558305402, 1.4974864828507903, 1.5327761900443968, 1.6964276609499]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>1.235544191532236</v>
+        <v>1.244952642315327</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[21, 161, 168, 1, 123, 3, 32]</t>
+          <t>[21, 161, 168, 1, 123, 32, 3]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5377,24 +5377,24 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.517519090646676, 0.7416982553305441, 0.8616976351726507, 0.9160526173733563, 0.9160526173733563, 1.3859203206146011, 1.4097756260834995]</t>
+          <t>[0.5180915544126258, 0.7444887450457575, 0.8672866029463107, 0.9216165495457089, 0.9216165495457089, 1.3852569123559788, 1.3878287122156834]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[161, 1, 123, 3, 32, 53, 24]</t>
+          <t>[161, 1, 123, 32, 3, 53, 24]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[0.7416982553305441, 0.9160526173733563, 0.9160526173733563, 1.3859203206146011, 1.4097756260834995, 1.4252437209913102, 1.539212490748003]</t>
+          <t>[0.7444887450457575, 0.9216165495457089, 0.9216165495457089, 1.3852569123559788, 1.3878287122156834, 1.4245043368181531, 1.4721709136437358]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>1.150986468993979</v>
+        <v>1.153436730950844</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5403,7 +5403,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:35.543078</t>
+          <t>2025-11-16T17:30:14.427011</t>
         </is>
       </c>
     </row>
